--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2148.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2148.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237225958730894</v>
+        <v>0.724724292755127</v>
       </c>
       <c r="B1">
-        <v>2.168943364757739</v>
+        <v>1.458641648292542</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.837569143405057</v>
+        <v>1.96343207359314</v>
       </c>
       <c r="E1">
-        <v>0.7704594527453127</v>
+        <v>1.232074737548828</v>
       </c>
     </row>
   </sheetData>
